--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4257332.112055679</v>
+        <v>4250315.097163966</v>
       </c>
     </row>
     <row r="7">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>384.1167470769847</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>142.6842984840635</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>133.213740718609</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>11.0042946710584</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>247.1717379509107</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>346.989972397865</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>4.470687503011363</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>43.31785343914003</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>397.5255987666</v>
+        <v>48.10357077896548</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586891</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>168.4728191948447</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274076</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>162.1640597891185</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385018</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.54985822863822</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y19" t="n">
-        <v>166.1250665966036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>66.72617561655105</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>46.25307783771848</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2493,10 +2493,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>2.576075071441132</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113178</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>92.16426352787659</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051995</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.246821098628</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>34.85541425449695</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633777</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675363</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583894</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>188.9966031324331</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>108.748185363502</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>169.7438101404428</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3556,7 +3556,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>144.1504526722478</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>75.9814283556162</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>9.607300658593314</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>20.15581516728217</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>145.520986584798</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1680.577747274852</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1680.577747274852</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>1322.312048668102</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>936.5237960698576</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>525.2632558086682</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4342,7 +4342,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2070.717079250664</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2070.717079250664</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1680.577747274852</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.5023158795654</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>188.5023158795654</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>188.5023158795654</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>188.5023158795654</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>188.5023158795654</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>188.5023158795654</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W4" t="n">
-        <v>409.2948950230955</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>409.2948950230955</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>188.5023158795654</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1799.76938401301</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="C5" t="n">
-        <v>1550.100961840373</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>564.8493801884833</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>564.8493801884833</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>557.9038794392799</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2189.908715988822</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>2189.908715988822</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>1799.76938401301</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="6">
@@ -4646,31 +4646,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2478.344821873747</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>2309.40863894584</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>2478.344821873747</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>2478.344821873747</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="W7" t="n">
-        <v>2478.344821873747</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X7" t="n">
-        <v>2478.344821873747</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>2478.344821873747</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1979.48636361053</v>
+        <v>631.9064409481884</v>
       </c>
       <c r="C8" t="n">
-        <v>1610.523846670118</v>
+        <v>262.9439240077767</v>
       </c>
       <c r="D8" t="n">
-        <v>1252.258148063368</v>
+        <v>262.9439240077767</v>
       </c>
       <c r="E8" t="n">
-        <v>866.4698954651235</v>
+        <v>262.9439240077767</v>
       </c>
       <c r="F8" t="n">
-        <v>455.4839906755159</v>
+        <v>255.9984232585733</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2134.880026519316</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>1782.111371249202</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.086203674652</v>
+        <v>1408.645612988122</v>
       </c>
       <c r="Y8" t="n">
-        <v>2366.086203674652</v>
+        <v>1018.50628101231</v>
       </c>
     </row>
     <row r="9">
@@ -4859,73 +4859,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2306.181947031415</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>2306.181947031415</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>2306.181947031415</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>2306.181947031415</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>2526.974526174945</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>2526.974526174945</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>2306.181947031415</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="12">
@@ -5108,34 +5108,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.9958217162124</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W13" t="n">
-        <v>1020.446367141521</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X13" t="n">
-        <v>856.6442865464521</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>856.6442865464521</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5311,19 +5311,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>472.1975378985032</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>303.2613549705964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>303.2613549705964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>155.3482613882032</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>155.3482613882032</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>155.3482613882032</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1164.055751909234</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>874.6385818722731</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>874.6385818722731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>653.846002728743</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5518,7 +5518,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5530,10 +5530,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>3525.606699852206</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M18" t="n">
-        <v>3948.66648479483</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>4278.529112458863</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>4558.06917767756</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>4763.09165845977</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4850.224560916993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>524.5778132641557</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771461</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>920.3704617344999</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X19" t="n">
-        <v>692.3809108364826</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>524.5778132641557</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5731,13 +5731,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
         <v>904.3190116155888</v>
@@ -5752,10 +5752,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5773,7 +5773,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5831,22 +5831,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>841.8631140141293</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4011.580169497611</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>3842.643986569704</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>3775.243809179248</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4749.779469576119</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4749.779469576119</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>4749.779469576119</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>4749.779469576119</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>4460.362299539158</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>4232.372748641141</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>4011.580169497611</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5980,34 +5980,34 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805475</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822468</v>
       </c>
       <c r="I23" t="n">
-        <v>97.2170914602865</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823795</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6068,28 +6068,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701562</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>1088.787142923176</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1396.107276203137</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1725.96990386717</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2005.509969085867</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>562.3990000507114</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C25" t="n">
-        <v>562.3990000507114</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D25" t="n">
-        <v>412.2823606383756</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U25" t="n">
-        <v>1072.608749231202</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V25" t="n">
-        <v>1072.608749231202</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W25" t="n">
-        <v>783.1915791942415</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="X25" t="n">
-        <v>783.1915791942415</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="Y25" t="n">
-        <v>562.3990000507114</v>
+        <v>1187.921157035281</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6247,10 +6247,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231265</v>
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147082</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1333.825180851559</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1725.96990386717</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2005.509969085867</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4151.013344999875</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>3982.077162071968</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>3831.960522659632</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>3738.865306974908</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>3738.865306974908</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929847</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>4660.934562929847</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4371.805924143405</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>4371.805924143405</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>4371.805924143405</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4371.805924143405</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>4151.013344999875</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823761</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514058</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>841.8631140141292</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3981.892396122775</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>3812.956213194868</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>3812.956213194868</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>3812.956213194868</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>4749.779469576117</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4525.994054365622</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4525.994054365622</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>4271.309566159735</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>3981.892396122775</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>3981.892396122775</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>3981.892396122775</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6700,25 +6700,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.627437207829</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>624.8682044203576</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>932.1883377003194</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>4749.779469576118</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>4749.779469576118</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4460.650830789676</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>4269.745171059945</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>3980.328001022985</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>3752.338450124967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>3752.338450124967</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2471.066311049164</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2881.956579893676</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>3128.72170780014</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M36" t="n">
-        <v>3436.041841080102</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>3765.904468744135</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O36" t="n">
-        <v>4045.444533962832</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.74515569858</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>670.8029673508215</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>501.8667844229146</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>501.8667844229146</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>353.9536908405215</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>207.0637433426112</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>207.0637433426112</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>207.0637433426112</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
         <v>507.4972331799365</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1187.921157035281</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>898.7925182488389</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V37" t="n">
-        <v>898.7925182488389</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>898.7925182488389</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>670.8029673508215</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>670.8029673508215</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7183,16 +7183,16 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207829</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1912.313820009359</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>581.2185435662825</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1353.309752707147</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1353.309752707147</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>1353.309752707147</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V40" t="n">
-        <v>1098.625264501261</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W40" t="n">
-        <v>809.2080944642998</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X40" t="n">
-        <v>581.2185435662825</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>581.2185435662825</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147082</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>860.7301020851612</v>
+        <v>324.384017443268</v>
       </c>
       <c r="C43" t="n">
-        <v>860.7301020851612</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D43" t="n">
-        <v>710.6134626728254</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
         <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1378.136823020139</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>1378.136823020139</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V43" t="n">
-        <v>1378.136823020139</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W43" t="n">
-        <v>1088.719652983179</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X43" t="n">
-        <v>860.7301020851612</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y43" t="n">
-        <v>860.7301020851612</v>
+        <v>506.0324822735078</v>
       </c>
     </row>
     <row r="44">
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>339.7502131046252</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>953.6472828615139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>565.0010960824696</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>544.6416868225887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1240.850271579528</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="U46" t="n">
-        <v>1075.21084526296</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V46" t="n">
-        <v>1075.21084526296</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W46" t="n">
-        <v>785.7936752259998</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>785.7936752259998</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>565.0010960824696</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747115</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>43.6598726146247</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,10 +9248,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>116.9087390531947</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,13 +9491,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>360.5026862907247</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>295.3773510571265</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>62.91120742583689</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720712</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,16 +10202,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>91.23759968302045</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445216</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>91.23759968302033</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445216</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>96.03744927814495</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>213.2603911806624</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599039</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>182.0340742867938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11375,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>52.49733361305249</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>63.54559559991861</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>91.36397013889791</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y19" t="n">
-        <v>52.45958675549116</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>81.88929740166131</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5789023442188</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>283.6612773271362</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>54.26969911869259</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>110.5656337684344</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836034</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985775</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>63.14104019139495</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>1.671060100769949</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338517</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>53.77035731135544</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>91.26539274301163</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>211.9402603997959</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>147.0910059313457</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>52.3998233988053</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>613223.9805588804</v>
+        <v>613223.9805588805</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>613223.9805588806</v>
+        <v>613223.9805588805</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>613223.9805588806</v>
+        <v>613223.9805588805</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>613223.9805588806</v>
+        <v>613223.9805588805</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>613223.9805588806</v>
+        <v>613223.9805588805</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>613223.9805588806</v>
+        <v>613223.9805588804</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176764</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176763</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>800515.7256176764</v>
       </c>
-      <c r="D2" t="n">
-        <v>800515.7256176763</v>
-      </c>
       <c r="E2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="F2" t="n">
         <v>762506.6664885324</v>
       </c>
       <c r="G2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885321</v>
       </c>
       <c r="H2" t="n">
-        <v>762506.6664885328</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="I2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="J2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.666488532</v>
       </c>
       <c r="K2" t="n">
+        <v>762506.6664885324</v>
+      </c>
+      <c r="L2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="M2" t="n">
+        <v>762506.6664885326</v>
+      </c>
+      <c r="N2" t="n">
+        <v>762506.666488532</v>
+      </c>
+      <c r="O2" t="n">
         <v>762506.6664885323</v>
       </c>
-      <c r="L2" t="n">
-        <v>762506.6664885326</v>
-      </c>
-      <c r="M2" t="n">
-        <v>762506.6664885324</v>
-      </c>
-      <c r="N2" t="n">
-        <v>762506.6664885323</v>
-      </c>
-      <c r="O2" t="n">
-        <v>762506.6664885324</v>
-      </c>
       <c r="P2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885322</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>6.002665031701325e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.651701151989983e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007565</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007535</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="G4" t="n">
+        <v>7916.731656007436</v>
+      </c>
+      <c r="H4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007482</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007443</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007434</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007414</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007482</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26475,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871665</v>
@@ -26493,22 +26493,22 @@
         <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20228.28037619847</v>
+        <v>-20228.28037619844</v>
       </c>
       <c r="C6" t="n">
+        <v>569739.598838346</v>
+      </c>
+      <c r="D6" t="n">
         <v>569739.5988383461</v>
       </c>
-      <c r="D6" t="n">
-        <v>569739.598838346</v>
-      </c>
       <c r="E6" t="n">
-        <v>137442.5724069119</v>
+        <v>136467.9811471907</v>
       </c>
       <c r="F6" t="n">
-        <v>662602.6088838081</v>
+        <v>661628.0176240867</v>
       </c>
       <c r="G6" t="n">
-        <v>662602.6088838087</v>
+        <v>661628.0176240861</v>
       </c>
       <c r="H6" t="n">
-        <v>662602.6088838087</v>
+        <v>661628.0176240865</v>
       </c>
       <c r="I6" t="n">
-        <v>662602.6088838086</v>
+        <v>661628.0176240866</v>
       </c>
       <c r="J6" t="n">
-        <v>486179.3896912156</v>
+        <v>485204.7984314932</v>
       </c>
       <c r="K6" t="n">
-        <v>662602.6088838085</v>
+        <v>661628.0176240867</v>
       </c>
       <c r="L6" t="n">
-        <v>662602.6088838085</v>
+        <v>661628.0176240865</v>
       </c>
       <c r="M6" t="n">
-        <v>527801.5936499711</v>
+        <v>526827.0023902497</v>
       </c>
       <c r="N6" t="n">
-        <v>662602.6088838084</v>
+        <v>661628.0176240862</v>
       </c>
       <c r="O6" t="n">
-        <v>662602.6088838084</v>
+        <v>661628.0176240866</v>
       </c>
       <c r="P6" t="n">
-        <v>662602.6088838084</v>
+        <v>661628.0176240866</v>
       </c>
     </row>
   </sheetData>
@@ -26694,16 +26694,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.926370499017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>22.75929866472671</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>271.0998715367315</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>22.95714812318619</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>214.0308107870259</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>118.1011538200969</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>66.79419762292997</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27824,25 +27824,25 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>281.8111867389663</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>208.819789884688</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>16.25857125419503</v>
+        <v>365.6805992418295</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060684</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>118.0501791417463</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28092,25 +28092,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.285915741704982e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,16 +28140,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>354.084249665091</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330536</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>427.333116103661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560244</v>
@@ -36211,13 +36211,13 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>693.6972596887376</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>544.6350560131509</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>396.1057808238498</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>10.73738595686866</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415054</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560244</v>
@@ -36922,16 +36922,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>373.6013019241287</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.5077701655654</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187463</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37089,7 +37089,7 @@
         <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
         <v>59.82538970349813</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>340.4953046390447</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N35" t="n">
         <v>803.580930408112</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>137.9476282330517</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504664</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N38" t="n">
         <v>803.580930408112</v>
@@ -37563,7 +37563,7 @@
         <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349813</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>420.3538061121872</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37800,7 +37800,7 @@
         <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
         <v>59.82538970349813</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>492.4584513372602</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>203.0727722009917</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38113,10 +38113,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4250315.097163966</v>
+        <v>4255254.360012999</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>295.9408816142896</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>142.6842984840635</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609198</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>63.57678144609376</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>11.0042946710584</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>351.1761790689565</v>
       </c>
       <c r="G5" t="n">
-        <v>346.989972397865</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>43.31785343914003</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>48.10357077896548</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>27.77238941128203</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586891</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634822</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274076</v>
+        <v>81.77913505274078</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>169.7438101404427</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.25307783771848</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>253.148856180583</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,13 +2772,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>256.604714631364</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051995</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>139.153727875004</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273986</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052011</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V37" t="n">
-        <v>169.7438101404428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3556,7 +3556,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>75.9814283556162</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670921</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>145.520986584798</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>525.2632558086682</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
@@ -4336,22 +4336,22 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4406,10 +4406,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
         <v>309.190302261463</v>
@@ -4430,22 +4430,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>923.1150787952338</v>
+        <v>780.8554976894902</v>
       </c>
       <c r="C5" t="n">
-        <v>923.1150787952338</v>
+        <v>780.8554976894902</v>
       </c>
       <c r="D5" t="n">
-        <v>564.8493801884833</v>
+        <v>422.5897990827397</v>
       </c>
       <c r="E5" t="n">
-        <v>564.8493801884833</v>
+        <v>422.5897990827397</v>
       </c>
       <c r="F5" t="n">
-        <v>557.9038794392799</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859356</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y5" t="n">
-        <v>1309.714918859356</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="6">
@@ -4646,31 +4646,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4761,16 +4761,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>684.3735766921516</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W7" t="n">
-        <v>684.3735766921516</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>456.3840257941342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>631.9064409481884</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>262.9439240077767</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>262.9439240077767</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>262.9439240077767</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>255.9984232585733</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862887</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862887</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519316</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249202</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.645612988122</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1018.50628101231</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064347</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550601</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5032,61 +5032,61 @@
         <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>412.6079778147083</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636248</v>
+        <v>659.3731057211725</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1271.749344574921</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V13" t="n">
-        <v>1017.064856369034</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W13" t="n">
-        <v>727.647686332073</v>
+        <v>496.6650364395585</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340557</v>
+        <v>268.6754855415411</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="14">
@@ -5275,37 +5275,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766205</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790662</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O15" t="n">
-        <v>2302.237516093321</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="17">
@@ -5512,34 +5512,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126483</v>
@@ -5612,10 +5612,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
@@ -5715,10 +5715,10 @@
         <v>241.9805482336716</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5731,13 +5731,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
         <v>904.3190116155888</v>
@@ -5749,13 +5749,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5776,22 +5776,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5828,16 +5828,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471194</v>
@@ -5952,10 +5952,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="23">
@@ -5980,34 +5980,34 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822468</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126483</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1141.200876391121</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632137</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.921157035281</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>1187.921157035281</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V25" t="n">
-        <v>1187.921157035281</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W25" t="n">
-        <v>1187.921157035281</v>
+        <v>475.323281770639</v>
       </c>
       <c r="X25" t="n">
-        <v>1187.921157035281</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y25" t="n">
-        <v>1187.921157035281</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="26">
@@ -6214,28 +6214,28 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155902</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619128</v>
@@ -6305,22 +6305,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028587</v>
@@ -6384,7 +6384,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6393,7 +6393,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,13 +6448,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,34 +6463,34 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6621,7 +6621,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
@@ -6630,7 +6630,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,19 +6639,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
         <v>869.3083006011507</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6700,28 +6700,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6782,19 +6782,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,28 +6876,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028584</v>
@@ -6928,13 +6928,13 @@
         <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080546</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822453</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6946,22 +6946,22 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231263</v>
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115523</v>
+        <v>921.193690363625</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
@@ -7104,7 +7104,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765191</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="38">
@@ -7153,67 +7153,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7341,7 +7341,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.384017443268</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C43" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D43" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E43" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557903</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352016</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150552</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170379</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y43" t="n">
-        <v>506.0324822735078</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1240.850271579528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1017.064856369034</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1017.064856369034</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,28 +8771,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>297.246643576102</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>306.1147370139951</v>
       </c>
       <c r="P15" t="n">
-        <v>29.47535963978268</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776744</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208061</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298383</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23466,16 +23466,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>48.84084321165207</v>
       </c>
     </row>
     <row r="14">
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>133.5789023442188</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>33.08849621799433</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>29.918283705227</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25362,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V37" t="n">
-        <v>82.39383318338517</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>91.26539274301163</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>140.3375291694989</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>52.3998233988053</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>613223.9805588805</v>
+        <v>613223.9805588806</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>613223.9805588804</v>
+        <v>613223.9805588805</v>
       </c>
     </row>
     <row r="16">
@@ -26319,40 +26319,40 @@
         <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="F2" t="n">
         <v>762506.6664885324</v>
       </c>
       <c r="G2" t="n">
-        <v>762506.6664885321</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="H2" t="n">
         <v>762506.6664885322</v>
       </c>
       <c r="I2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="J2" t="n">
         <v>762506.6664885323</v>
       </c>
-      <c r="J2" t="n">
-        <v>762506.666488532</v>
-      </c>
       <c r="K2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="L2" t="n">
+        <v>762506.6664885326</v>
+      </c>
+      <c r="M2" t="n">
         <v>762506.6664885324</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>762506.6664885322</v>
       </c>
-      <c r="M2" t="n">
-        <v>762506.6664885326</v>
-      </c>
-      <c r="N2" t="n">
-        <v>762506.666488532</v>
-      </c>
       <c r="O2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="P2" t="n">
         <v>762506.6664885322</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.651701151989983e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338374</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007565</v>
+        <v>7916.731656007401</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007396</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007436</v>
+        <v>7916.731656007396</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.73165600742</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7916.731656007436</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7916.731656007527</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="O4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="K4" t="n">
+      <c r="P4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7916.73165600748</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7916.73165600748</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.731656007482</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7916.73165600748</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26469,40 +26469,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20228.28037619844</v>
+        <v>-20228.28037619845</v>
       </c>
       <c r="C6" t="n">
         <v>569739.598838346</v>
       </c>
       <c r="D6" t="n">
-        <v>569739.5988383461</v>
+        <v>569739.598838346</v>
       </c>
       <c r="E6" t="n">
-        <v>136467.9811471907</v>
+        <v>137345.1132809396</v>
       </c>
       <c r="F6" t="n">
-        <v>661628.0176240867</v>
+        <v>662505.1497578362</v>
       </c>
       <c r="G6" t="n">
-        <v>661628.0176240861</v>
+        <v>662505.149757836</v>
       </c>
       <c r="H6" t="n">
-        <v>661628.0176240865</v>
+        <v>662505.149757836</v>
       </c>
       <c r="I6" t="n">
-        <v>661628.0176240866</v>
+        <v>662505.149757836</v>
       </c>
       <c r="J6" t="n">
-        <v>485204.7984314932</v>
+        <v>486081.9305652432</v>
       </c>
       <c r="K6" t="n">
-        <v>661628.0176240867</v>
+        <v>662505.149757836</v>
       </c>
       <c r="L6" t="n">
-        <v>661628.0176240865</v>
+        <v>662505.1497578364</v>
       </c>
       <c r="M6" t="n">
-        <v>526827.0023902497</v>
+        <v>527704.1345239987</v>
       </c>
       <c r="N6" t="n">
-        <v>661628.0176240862</v>
+        <v>662505.149757836</v>
       </c>
       <c r="O6" t="n">
-        <v>661628.0176240866</v>
+        <v>662505.149757836</v>
       </c>
       <c r="P6" t="n">
-        <v>661628.0176240866</v>
+        <v>662505.149757836</v>
       </c>
     </row>
   </sheetData>
@@ -26694,16 +26694,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26718,10 +26718,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990184</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>85.98948845797219</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>271.0998715367315</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27545,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>82.85718120047541</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27587,10 +27587,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>214.0308107870259</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>55.69986667275498</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>66.79419762292997</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>208.819789884688</v>
+        <v>28.9878097027507</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>365.6805992418295</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>26.70601316352968</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060684</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="11">
@@ -28092,25 +28092,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.285915741704982e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,16 +28140,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>-3.221748285764167e-15</v>
       </c>
       <c r="T11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>-1.635102626762782e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-1.392663762089796e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-7.540296344202581e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -30006,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>8.769894134013742e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32484,13 +32484,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32505,7 +32505,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32560,7 +32560,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813463</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32633,10 +32633,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32645,7 +32645,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,13 +32657,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>630.441216974115</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>588.4784392551034</v>
       </c>
       <c r="P15" t="n">
-        <v>236.5687745713073</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36132,19 +36132,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005179</v>
@@ -36211,19 +36211,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523309</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
